--- a/questions.xlsx
+++ b/questions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Desktop\Giihub Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github Test\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB05EBF3-469E-47D0-A2C6-964AC899E1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EB30D4-96A2-4278-B130-032E77D841F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{E4FE0BF6-9D8D-49F0-BD0B-01615BABCDA3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{E4FE0BF6-9D8D-49F0-BD0B-01615BABCDA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="66">
   <si>
     <t xml:space="preserve"> - ......................... do you visit your hometown? - Once a year.</t>
   </si>
@@ -2303,8 +2304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01419D6-BE7D-4DB7-92FB-7D0D13CEA903}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2635,4 +2636,341 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD912B03-3651-4137-B0D0-77F51FB7506E}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github Test\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EB30D4-96A2-4278-B130-032E77D841F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE876090-A520-411D-B171-B876F6C1A588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{E4FE0BF6-9D8D-49F0-BD0B-01615BABCDA3}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="79">
   <si>
     <t xml:space="preserve"> - ......................... do you visit your hometown? - Once a year.</t>
   </si>
@@ -240,6 +240,45 @@
   </si>
   <si>
     <t>explanation</t>
+  </si>
+  <si>
+    <t>1.  - ......................... do you visit your hometown? - Once a year.</t>
+  </si>
+  <si>
+    <t>1. – "What would you like to drink now?" – " ......................... "</t>
+  </si>
+  <si>
+    <t>1. - .........................do you visit your hometown? - Once a year.</t>
+  </si>
+  <si>
+    <t>1.  He …………… television in the living room at present.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Most students.....................to talk to foreigners for the first time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. My baby sister …………………… all the time.</t>
+  </si>
+  <si>
+    <t>1. - Sorry. He’s not in right now.    - .........................</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. The children were ......................... because their mother was coming back home.</t>
+  </si>
+  <si>
+    <t>1. There are ……………… cars on the road today.</t>
+  </si>
+  <si>
+    <t>1.  Yumi has a …………..diet because she eats lots of vegetables.</t>
+  </si>
+  <si>
+    <t>1. ......................... books are on the floor? They aren’t mine.</t>
+  </si>
+  <si>
+    <t>1. ......................... do you go on business? – Rarely, just once a year I think.</t>
+  </si>
+  <si>
+    <t>1. ......................... does he speak Italian? – Very fluently, I think.</t>
   </si>
 </sst>
 </file>
@@ -2643,7 +2682,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2673,7 +2712,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2696,7 +2735,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -2719,7 +2758,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -2742,7 +2781,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -2765,7 +2804,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -2788,7 +2827,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -2811,7 +2850,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
@@ -2834,7 +2873,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -2857,7 +2896,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -2880,7 +2919,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
         <v>42</v>
@@ -2903,7 +2942,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
         <v>47</v>
@@ -2926,7 +2965,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -2949,7 +2988,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github Test\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE876090-A520-411D-B171-B876F6C1A588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD6E3B0-361F-4EA2-A478-EB7B32177D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{E4FE0BF6-9D8D-49F0-BD0B-01615BABCDA3}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="92">
   <si>
     <t xml:space="preserve"> - ......................... do you visit your hometown? - Once a year.</t>
   </si>
@@ -279,6 +279,45 @@
   </si>
   <si>
     <t>1. ......................... does he speak Italian? – Very fluently, I think.</t>
+  </si>
+  <si>
+    <t>1. How long</t>
+  </si>
+  <si>
+    <t>1. A sandwich</t>
+  </si>
+  <si>
+    <t>1. How often</t>
+  </si>
+  <si>
+    <t>1. watches</t>
+  </si>
+  <si>
+    <t>1. have difficulty</t>
+  </si>
+  <si>
+    <t>1. cries</t>
+  </si>
+  <si>
+    <t>1. Fine. I’ll call back again.</t>
+  </si>
+  <si>
+    <t>1. excited</t>
+  </si>
+  <si>
+    <t>1. much</t>
+  </si>
+  <si>
+    <t>1. health</t>
+  </si>
+  <si>
+    <t>1. What</t>
+  </si>
+  <si>
+    <t>1. How many</t>
+  </si>
+  <si>
+    <t>1. How</t>
   </si>
 </sst>
 </file>
@@ -2682,7 +2721,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2715,7 +2754,7 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -2738,7 +2777,7 @@
         <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -2761,7 +2800,7 @@
         <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -2784,7 +2823,7 @@
         <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -2807,7 +2846,7 @@
         <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -2830,7 +2869,7 @@
         <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -2853,7 +2892,7 @@
         <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -2876,7 +2915,7 @@
         <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -2899,7 +2938,7 @@
         <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
@@ -2922,7 +2961,7 @@
         <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
         <v>43</v>
@@ -2945,7 +2984,7 @@
         <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
         <v>48</v>
@@ -2968,7 +3007,7 @@
         <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
         <v>53</v>
@@ -2991,7 +3030,7 @@
         <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
         <v>53</v>
